--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -21,50 +21,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author> </author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">jx:area(lastCell=”J5")</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="114">
-  <si>
-    <t xml:space="preserve">${companyLogo}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${tencongty}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${diaChiVanPhong}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${diaChiNhaXuong}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${soDienThoai}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${email}</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="108">
   <si>
     <t xml:space="preserve">Báo Giá Nội Thất</t>
   </si>
@@ -1353,10 +1311,10 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
@@ -1370,13 +1328,9 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1389,9 +1343,7 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1404,9 +1356,7 @@
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1419,9 +1369,7 @@
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1434,9 +1382,7 @@
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1448,7 +1394,7 @@
     </row>
     <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1528,33 +1474,33 @@
     </row>
     <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,13 +1508,13 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -1598,12 +1544,12 @@
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="22" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="23" t="e">
         <f aca="false">#REF!*97/100</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="K15" s="19"/>
     </row>
@@ -1612,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -1620,7 +1566,7 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="26" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I16" s="26"/>
       <c r="J16" s="27" t="n">
@@ -1633,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -1641,7 +1587,7 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="26" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="27" t="n">
@@ -1654,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
@@ -1662,7 +1608,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="27" t="n">
@@ -1673,7 +1619,7 @@
     <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="24"/>
       <c r="B19" s="28" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
@@ -1692,7 +1638,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -1700,18 +1646,18 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="26" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="27" t="e">
         <f aca="false">J15-J16-J17-J18-J19</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="K20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="29" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -1726,7 +1672,7 @@
     </row>
     <row r="22" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -1748,7 +1694,7 @@
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
       <c r="H23" s="30" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="32"/>
@@ -1861,7 +1807,6 @@
     <oddHeader/>
     <oddFooter>&amp;RV1.0.08.2020</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1876,7 +1821,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
@@ -1891,11 +1836,11 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="37" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="38" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -1910,7 +1855,7 @@
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="39" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -1925,7 +1870,7 @@
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="39" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
@@ -1940,7 +1885,7 @@
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
@@ -1955,7 +1900,7 @@
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="39" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
@@ -1968,7 +1913,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1983,7 +1928,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
@@ -1998,7 +1943,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="42"/>
@@ -2013,7 +1958,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="42"/>
@@ -2028,7 +1973,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
@@ -2043,7 +1988,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
@@ -2058,33 +2003,33 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2092,13 +2037,13 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -2108,10 +2053,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="44" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
@@ -2131,10 +2076,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D15" s="14" t="n">
         <f aca="false">2505*2+3200</f>
@@ -2147,7 +2092,7 @@
         <v>810</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H15" s="17" t="n">
         <v>3750000</v>
@@ -2167,10 +2112,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D16" s="14" t="n">
         <f aca="false">D15+250-2050</f>
@@ -2183,7 +2128,7 @@
         <v>800</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H16" s="17" t="n">
         <v>2860000</v>
@@ -2203,10 +2148,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D17" s="14" t="n">
         <f aca="false">D16</f>
@@ -2220,7 +2165,7 @@
         <v>605</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H17" s="17" t="n">
         <v>2500000</v>
@@ -2240,10 +2185,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D18" s="14" t="n">
         <v>1200</v>
@@ -2255,7 +2200,7 @@
         <v>870</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H18" s="17" t="n">
         <f aca="false">H15</f>
@@ -2274,7 +2219,7 @@
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="14"/>
       <c r="B19" s="21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -2294,16 +2239,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H20" s="50" t="n">
         <v>550000</v>
@@ -2322,16 +2267,16 @@
         <v>2</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H21" s="50" t="n">
         <v>450000</v>
@@ -2350,16 +2295,16 @@
         <v>3</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H22" s="50" t="n">
         <v>1705000</v>
@@ -2378,16 +2323,16 @@
         <v>4</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="52" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H23" s="53" t="n">
         <v>1900000</v>
@@ -2406,16 +2351,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="52" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H24" s="53" t="n">
         <v>1900000</v>
@@ -2434,16 +2379,16 @@
         <v>6</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H25" s="54" t="n">
         <v>5885000</v>
@@ -2462,16 +2407,16 @@
         <v>7</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D26" s="52"/>
       <c r="E26" s="52"/>
       <c r="F26" s="52"/>
       <c r="G26" s="52" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H26" s="53" t="n">
         <v>880000</v>
@@ -2490,16 +2435,16 @@
         <v>8</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H27" s="54" t="n">
         <v>0</v>
@@ -2518,16 +2463,16 @@
         <v>9</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H28" s="54" t="n">
         <v>0</v>
@@ -2546,16 +2491,16 @@
         <v>10</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H29" s="54" t="n">
         <v>0</v>
@@ -2574,16 +2519,16 @@
         <v>11</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H30" s="55" t="n">
         <v>100000</v>
@@ -2606,7 +2551,7 @@
       <c r="F31" s="57"/>
       <c r="G31" s="58"/>
       <c r="H31" s="59" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I31" s="59"/>
       <c r="J31" s="47" t="n">
@@ -2624,7 +2569,7 @@
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
       <c r="H32" s="22" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I32" s="22"/>
       <c r="J32" s="23" t="n">
@@ -2638,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
@@ -2646,7 +2591,7 @@
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
       <c r="H33" s="26" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I33" s="26"/>
       <c r="J33" s="27" t="n">
@@ -2659,7 +2604,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -2667,7 +2612,7 @@
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I34" s="26"/>
       <c r="J34" s="27" t="n">
@@ -2680,7 +2625,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
@@ -2688,7 +2633,7 @@
       <c r="F35" s="28"/>
       <c r="G35" s="28"/>
       <c r="H35" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I35" s="26"/>
       <c r="J35" s="27" t="n">
@@ -2701,7 +2646,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -2709,7 +2654,7 @@
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
       <c r="H36" s="26" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I36" s="26"/>
       <c r="J36" s="27" t="n">
@@ -2720,7 +2665,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="60" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H37" s="61"/>
       <c r="I37" s="61"/>
@@ -2728,7 +2673,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -2740,7 +2685,7 @@
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="H39" s="30" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I39" s="30"/>
       <c r="J39" s="32"/>
@@ -2824,7 +2769,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.29"/>
@@ -2840,11 +2785,11 @@
   <sheetData>
     <row r="1" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="37" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="38" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -2858,7 +2803,7 @@
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="39" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -2872,7 +2817,7 @@
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="39" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
@@ -2886,7 +2831,7 @@
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
@@ -2900,7 +2845,7 @@
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="39" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
@@ -2912,7 +2857,7 @@
     </row>
     <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="62" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
@@ -2926,10 +2871,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="63" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C7" s="65"/>
       <c r="D7" s="65"/>
@@ -2942,7 +2887,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="63" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B8" s="68" t="n">
         <v>356188889</v>
@@ -2958,7 +2903,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="63" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B9" s="69"/>
       <c r="C9" s="65"/>
@@ -2972,7 +2917,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="63" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B10" s="70"/>
       <c r="C10" s="65"/>
@@ -2986,7 +2931,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="63" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B11" s="71"/>
       <c r="C11" s="65"/>
@@ -3000,30 +2945,30 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J12" s="72" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3031,13 +2976,13 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -3046,10 +2991,10 @@
     </row>
     <row r="14" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="73" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C14" s="74"/>
       <c r="D14" s="74"/>
@@ -3065,10 +3010,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D15" s="75" t="n">
         <v>2500</v>
@@ -3080,7 +3025,7 @@
         <v>810</v>
       </c>
       <c r="G15" s="75" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H15" s="77" t="n">
         <v>3300000</v>
@@ -3097,7 +3042,7 @@
     <row r="16" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="80"/>
       <c r="B16" s="81" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C16" s="81"/>
       <c r="D16" s="81"/>
@@ -3105,7 +3050,7 @@
       <c r="F16" s="81"/>
       <c r="G16" s="81"/>
       <c r="H16" s="82" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I16" s="82"/>
       <c r="J16" s="83" t="n">
@@ -3115,10 +3060,10 @@
     </row>
     <row r="17" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="73" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C17" s="74"/>
       <c r="D17" s="74"/>
@@ -3134,10 +3079,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D18" s="75" t="n">
         <f aca="false">2500</f>
@@ -3150,7 +3095,7 @@
         <v>8</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H18" s="77" t="n">
         <v>850000</v>
@@ -3169,10 +3114,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C19" s="76" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D19" s="75" t="n">
         <v>2500</v>
@@ -3184,7 +3129,7 @@
         <v>40</v>
       </c>
       <c r="G19" s="75" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H19" s="77" t="n">
         <v>1350000</v>
@@ -3203,18 +3148,18 @@
         <v>3</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C20" s="84" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E20" s="52"/>
       <c r="F20" s="52"/>
       <c r="G20" s="52" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H20" s="85" t="n">
         <v>1800000</v>
@@ -3232,18 +3177,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C21" s="88" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E21" s="49"/>
       <c r="F21" s="49"/>
       <c r="G21" s="52" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H21" s="85" t="n">
         <v>1770000</v>
@@ -3261,18 +3206,18 @@
         <v>5</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C22" s="88" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D22" s="89" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E22" s="89"/>
       <c r="F22" s="89"/>
       <c r="G22" s="52" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H22" s="85" t="n">
         <v>1550000</v>
@@ -3290,18 +3235,18 @@
         <v>6</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C23" s="88" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D23" s="89" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E23" s="89"/>
       <c r="F23" s="89"/>
       <c r="G23" s="52" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H23" s="85" t="n">
         <v>1770000</v>
@@ -3319,16 +3264,16 @@
         <v>7</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C24" s="76" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D24" s="49"/>
       <c r="E24" s="49"/>
       <c r="F24" s="49"/>
       <c r="G24" s="49" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H24" s="77" t="n">
         <v>105000</v>
@@ -3346,16 +3291,16 @@
         <v>8</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C25" s="91" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="49"/>
       <c r="F25" s="49"/>
       <c r="G25" s="49" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H25" s="77" t="n">
         <v>155000</v>
@@ -3373,16 +3318,16 @@
         <v>9</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C26" s="91" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D26" s="49"/>
       <c r="E26" s="49"/>
       <c r="F26" s="49"/>
       <c r="G26" s="49" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H26" s="77" t="n">
         <v>49500</v>
@@ -3400,16 +3345,16 @@
         <v>10</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C27" s="75" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D27" s="75"/>
       <c r="E27" s="75"/>
       <c r="F27" s="75"/>
       <c r="G27" s="75" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H27" s="77" t="n">
         <v>100000</v>
@@ -3427,18 +3372,18 @@
         <v>11</v>
       </c>
       <c r="B28" s="93" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C28" s="88" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D28" s="94" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E28" s="94"/>
       <c r="F28" s="94"/>
       <c r="G28" s="94" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H28" s="85" t="n">
         <v>275000</v>
@@ -3454,7 +3399,7 @@
     <row r="29" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="95"/>
       <c r="B29" s="96" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C29" s="96"/>
       <c r="D29" s="96"/>
@@ -3462,7 +3407,7 @@
       <c r="F29" s="96"/>
       <c r="G29" s="96"/>
       <c r="H29" s="82" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I29" s="82"/>
       <c r="J29" s="97" t="n">
@@ -3473,7 +3418,7 @@
     <row r="30" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="95"/>
       <c r="B30" s="96" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C30" s="96"/>
       <c r="D30" s="96"/>
@@ -3481,7 +3426,7 @@
       <c r="F30" s="96"/>
       <c r="G30" s="96"/>
       <c r="H30" s="98" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I30" s="98"/>
       <c r="J30" s="99" t="n">
@@ -3491,7 +3436,7 @@
     </row>
     <row r="31" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="29" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>

--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -746,7 +746,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -776,6 +776,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="medium"/>
       <top/>
@@ -822,7 +829,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -855,6 +862,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -863,6 +874,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -987,7 +1002,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1051,11 +1066,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1091,7 +1106,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1311,10 +1326,10 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
@@ -1417,8 +1432,8 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
@@ -1430,8 +1445,8 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
@@ -1443,338 +1458,328 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="8"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="8"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="13"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="20"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23" t="e">
+      <c r="I15" s="24"/>
+      <c r="J15" s="25" t="e">
         <f aca="false">#REF!*97/100</f>
         <v>#REF!</v>
       </c>
-      <c r="K15" s="19"/>
+      <c r="K15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="n">
+      <c r="A16" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="27" t="n">
+      <c r="I16" s="28"/>
+      <c r="J16" s="29" t="n">
         <v>9000000</v>
       </c>
-      <c r="K16" s="19"/>
+      <c r="K16" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="n">
+      <c r="A17" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="27" t="n">
+      <c r="I17" s="28"/>
+      <c r="J17" s="29" t="n">
         <v>22000000</v>
       </c>
-      <c r="K17" s="19"/>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="n">
+      <c r="A18" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="26" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="27" t="n">
+      <c r="I18" s="28"/>
+      <c r="J18" s="29" t="n">
         <v>22000000</v>
       </c>
-      <c r="K18" s="19"/>
+      <c r="K18" s="21"/>
     </row>
     <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24"/>
-      <c r="B19" s="28" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="27" t="n">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29" t="n">
         <v>-2000000</v>
       </c>
-      <c r="K19" s="19"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="n">
+      <c r="A20" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="27" t="e">
+      <c r="I20" s="28"/>
+      <c r="J20" s="29" t="e">
         <f aca="false">J15-J16-J17-J18-J19</f>
         <v>#REF!</v>
       </c>
-      <c r="K20" s="19"/>
+      <c r="K20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="19"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="19"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="30" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="19"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="19"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K25" s="19"/>
+      <c r="K25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K26" s="19"/>
+      <c r="K26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K27" s="19"/>
+      <c r="K27" s="21"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K28" s="19"/>
+      <c r="K28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K29" s="19"/>
+      <c r="K29" s="21"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K30" s="19"/>
+      <c r="K30" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K31" s="19"/>
+      <c r="K31" s="21"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K32" s="19"/>
+      <c r="K32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K33" s="33"/>
+      <c r="K33" s="35"/>
     </row>
     <row r="34" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K34" s="34"/>
+      <c r="K34" s="36"/>
     </row>
     <row r="35" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K35" s="35"/>
+      <c r="K35" s="37"/>
     </row>
     <row r="36" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K36" s="34"/>
+      <c r="K36" s="36"/>
     </row>
     <row r="37" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K37" s="34"/>
+      <c r="K37" s="36"/>
     </row>
     <row r="38" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K38" s="36"/>
+      <c r="K38" s="38"/>
     </row>
     <row r="39" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K39" s="32"/>
+      <c r="K39" s="34"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K40" s="32"/>
+      <c r="K40" s="34"/>
     </row>
     <row r="41" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K41" s="32"/>
+      <c r="K41" s="34"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K42" s="32"/>
+      <c r="K42" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="26">
     <mergeCell ref="A1:B5"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
     <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
@@ -1821,7 +1826,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
@@ -1835,80 +1840,80 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="39" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="39" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
       <c r="K3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="39" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="39" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1927,776 +1932,776 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="8"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="8"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="8"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="13"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="46" t="n">
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48" t="n">
         <f aca="false">SUM(J15:J18)</f>
         <v>69645100</v>
       </c>
-      <c r="K14" s="20"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="n">
+      <c r="A15" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="14" t="n">
+      <c r="D15" s="16" t="n">
         <f aca="false">2505*2+3200</f>
         <v>8210</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="16" t="n">
         <v>600</v>
       </c>
-      <c r="F15" s="14" t="n">
+      <c r="F15" s="16" t="n">
         <v>810</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="17" t="n">
+      <c r="H15" s="19" t="n">
         <v>3750000</v>
       </c>
-      <c r="I15" s="18" t="n">
+      <c r="I15" s="20" t="n">
         <f aca="false">D15/10^3</f>
         <v>8.21</v>
       </c>
-      <c r="J15" s="19" t="n">
+      <c r="J15" s="21" t="n">
         <f aca="false">I15*H15</f>
         <v>30787500</v>
       </c>
-      <c r="K15" s="19"/>
+      <c r="K15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="n">
+      <c r="A16" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="14" t="n">
+      <c r="D16" s="16" t="n">
         <f aca="false">D15+250-2050</f>
         <v>6410</v>
       </c>
-      <c r="E16" s="14" t="n">
+      <c r="E16" s="16" t="n">
         <v>350</v>
       </c>
-      <c r="F16" s="14" t="n">
+      <c r="F16" s="16" t="n">
         <v>800</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="17" t="n">
+      <c r="H16" s="19" t="n">
         <v>2860000</v>
       </c>
-      <c r="I16" s="18" t="n">
+      <c r="I16" s="20" t="n">
         <f aca="false">D16/10^3</f>
         <v>6.41</v>
       </c>
-      <c r="J16" s="19" t="n">
+      <c r="J16" s="21" t="n">
         <f aca="false">I16*H16</f>
         <v>18332600</v>
       </c>
-      <c r="K16" s="19"/>
+      <c r="K16" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="n">
+      <c r="A17" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="14" t="n">
+      <c r="D17" s="16" t="n">
         <f aca="false">D16</f>
         <v>6410</v>
       </c>
-      <c r="E17" s="14" t="n">
+      <c r="E17" s="16" t="n">
         <v>350</v>
       </c>
-      <c r="F17" s="14" t="n">
+      <c r="F17" s="16" t="n">
         <f aca="false">2815-810-800-600</f>
         <v>605</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="17" t="n">
+      <c r="H17" s="19" t="n">
         <v>2500000</v>
       </c>
-      <c r="I17" s="18" t="n">
+      <c r="I17" s="20" t="n">
         <f aca="false">D17/10^3</f>
         <v>6.41</v>
       </c>
-      <c r="J17" s="19" t="n">
+      <c r="J17" s="21" t="n">
         <f aca="false">I17*H17</f>
         <v>16025000</v>
       </c>
-      <c r="K17" s="19"/>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="n">
+      <c r="A18" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="14" t="n">
+      <c r="D18" s="16" t="n">
         <v>1200</v>
       </c>
-      <c r="E18" s="14" t="n">
+      <c r="E18" s="16" t="n">
         <v>700</v>
       </c>
-      <c r="F18" s="14" t="n">
+      <c r="F18" s="16" t="n">
         <v>870</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="17" t="n">
+      <c r="H18" s="19" t="n">
         <f aca="false">H15</f>
         <v>3750000</v>
       </c>
-      <c r="I18" s="18" t="n">
+      <c r="I18" s="20" t="n">
         <f aca="false">D18/10^3</f>
         <v>1.2</v>
       </c>
-      <c r="J18" s="19" t="n">
+      <c r="J18" s="21" t="n">
         <f aca="false">I18*H18</f>
         <v>4500000</v>
       </c>
-      <c r="K18" s="19"/>
+      <c r="K18" s="21"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
-      <c r="B19" s="21" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="47" t="n">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="49" t="n">
         <f aca="false">SUM(J20:J30)</f>
         <v>21425000</v>
       </c>
-      <c r="K19" s="19"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="n">
+      <c r="A20" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="50" t="n">
+      <c r="H20" s="52" t="n">
         <v>550000</v>
       </c>
-      <c r="I20" s="51" t="n">
+      <c r="I20" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="J20" s="19" t="n">
+      <c r="J20" s="21" t="n">
         <f aca="false">I20*H20</f>
         <v>1100000</v>
       </c>
-      <c r="K20" s="19"/>
+      <c r="K20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="n">
+      <c r="A21" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="50" t="n">
+      <c r="H21" s="52" t="n">
         <v>450000</v>
       </c>
-      <c r="I21" s="51" t="n">
+      <c r="I21" s="53" t="n">
         <v>3</v>
       </c>
-      <c r="J21" s="19" t="n">
+      <c r="J21" s="21" t="n">
         <f aca="false">I21*H21</f>
         <v>1350000</v>
       </c>
-      <c r="K21" s="19"/>
+      <c r="K21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="n">
+      <c r="A22" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16" t="s">
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="50" t="n">
+      <c r="H22" s="52" t="n">
         <v>1705000</v>
       </c>
-      <c r="I22" s="51" t="n">
+      <c r="I22" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="J22" s="19" t="n">
+      <c r="J22" s="21" t="n">
         <f aca="false">I22*H22</f>
         <v>3410000</v>
       </c>
-      <c r="K22" s="19"/>
+      <c r="K22" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="n">
+      <c r="A23" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="52" t="s">
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="53" t="n">
+      <c r="H23" s="55" t="n">
         <v>1900000</v>
       </c>
-      <c r="I23" s="51" t="n">
+      <c r="I23" s="53" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="19" t="n">
+      <c r="J23" s="21" t="n">
         <f aca="false">I23*H23</f>
         <v>1900000</v>
       </c>
-      <c r="K23" s="19"/>
+      <c r="K23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="n">
+      <c r="A24" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="52" t="s">
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="53" t="n">
+      <c r="H24" s="55" t="n">
         <v>1900000</v>
       </c>
-      <c r="I24" s="51" t="n">
+      <c r="I24" s="53" t="n">
         <v>1</v>
       </c>
-      <c r="J24" s="19" t="n">
+      <c r="J24" s="21" t="n">
         <f aca="false">I24*H24</f>
         <v>1900000</v>
       </c>
-      <c r="K24" s="19"/>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="n">
+      <c r="A25" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16" t="s">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="54" t="n">
+      <c r="H25" s="56" t="n">
         <v>5885000</v>
       </c>
-      <c r="I25" s="51" t="n">
+      <c r="I25" s="53" t="n">
         <v>1</v>
       </c>
-      <c r="J25" s="19" t="n">
+      <c r="J25" s="21" t="n">
         <f aca="false">I25*H25</f>
         <v>5885000</v>
       </c>
-      <c r="K25" s="19"/>
+      <c r="K25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="n">
+      <c r="A26" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52" t="s">
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="53" t="n">
+      <c r="H26" s="55" t="n">
         <v>880000</v>
       </c>
-      <c r="I26" s="51" t="n">
+      <c r="I26" s="53" t="n">
         <v>1</v>
       </c>
-      <c r="J26" s="19" t="n">
+      <c r="J26" s="21" t="n">
         <f aca="false">I26*H26</f>
         <v>880000</v>
       </c>
-      <c r="K26" s="19"/>
+      <c r="K26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="n">
+      <c r="A27" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16" t="s">
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="54" t="n">
+      <c r="H27" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="18" t="n">
+      <c r="I27" s="20" t="n">
         <v>48</v>
       </c>
-      <c r="J27" s="19" t="n">
+      <c r="J27" s="21" t="n">
         <f aca="false">I27*H27</f>
         <v>0</v>
       </c>
-      <c r="K27" s="19"/>
+      <c r="K27" s="21"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="n">
+      <c r="A28" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="14" t="s">
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="54" t="n">
+      <c r="H28" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="51" t="n">
+      <c r="I28" s="53" t="n">
         <v>8</v>
       </c>
-      <c r="J28" s="19" t="n">
+      <c r="J28" s="21" t="n">
         <f aca="false">I28*H28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="19"/>
+      <c r="K28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="n">
+      <c r="A29" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16" t="s">
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="H29" s="54" t="n">
+      <c r="H29" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="18" t="n">
+      <c r="I29" s="20" t="n">
         <v>16</v>
       </c>
-      <c r="J29" s="19" t="n">
+      <c r="J29" s="21" t="n">
         <f aca="false">I29*H29</f>
         <v>0</v>
       </c>
-      <c r="K29" s="19"/>
+      <c r="K29" s="21"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="n">
+      <c r="A30" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="14" t="s">
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="55" t="n">
+      <c r="H30" s="57" t="n">
         <v>100000</v>
       </c>
-      <c r="I30" s="56" t="n">
+      <c r="I30" s="58" t="n">
         <v>50</v>
       </c>
-      <c r="J30" s="19" t="n">
+      <c r="J30" s="21" t="n">
         <f aca="false">I30*H30</f>
         <v>5000000</v>
       </c>
-      <c r="K30" s="19"/>
+      <c r="K30" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="59" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="I31" s="59"/>
-      <c r="J31" s="47" t="n">
+      <c r="I31" s="61"/>
+      <c r="J31" s="49" t="n">
         <f aca="false">SUM(J19+J14)</f>
         <v>91070100</v>
       </c>
-      <c r="K31" s="19"/>
+      <c r="K31" s="21"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="23" t="n">
+      <c r="I32" s="24"/>
+      <c r="J32" s="25" t="n">
         <f aca="false">J31*97/100</f>
         <v>88337997</v>
       </c>
-      <c r="K32" s="33"/>
+      <c r="K32" s="35"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24" t="n">
+      <c r="A33" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="26" t="s">
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="27" t="n">
+      <c r="I33" s="28"/>
+      <c r="J33" s="29" t="n">
         <v>13000000</v>
       </c>
-      <c r="K33" s="34"/>
+      <c r="K33" s="36"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24" t="n">
+      <c r="A34" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="27" t="n">
+      <c r="I34" s="28"/>
+      <c r="J34" s="29" t="n">
         <v>35000000</v>
       </c>
-      <c r="K34" s="35"/>
+      <c r="K34" s="37"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="n">
+      <c r="A35" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="26" t="s">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="27" t="n">
+      <c r="I35" s="28"/>
+      <c r="J35" s="29" t="n">
         <v>30000000</v>
       </c>
-      <c r="K35" s="34"/>
+      <c r="K35" s="36"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24" t="n">
+      <c r="A36" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26" t="s">
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I36" s="26"/>
-      <c r="J36" s="27" t="n">
+      <c r="I36" s="28"/>
+      <c r="J36" s="29" t="n">
         <f aca="false">J32-J33-J34-J35</f>
         <v>10337997</v>
       </c>
-      <c r="K36" s="36"/>
+      <c r="K36" s="38"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="K37" s="32"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="K37" s="34"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="H39" s="30" t="s">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="H39" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -2769,7 +2774,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.29"/>
@@ -2784,729 +2789,729 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="39" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="39" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="39" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="39" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
     </row>
     <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="68" t="n">
+      <c r="B8" s="70" t="n">
         <v>356188889</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="67"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="67"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="72" t="s">
+      <c r="J12" s="74" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
     </row>
     <row r="15" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="75" t="n">
+      <c r="A15" s="77" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="75" t="n">
+      <c r="D15" s="77" t="n">
         <v>2500</v>
       </c>
-      <c r="E15" s="75" t="n">
+      <c r="E15" s="77" t="n">
         <v>600</v>
       </c>
-      <c r="F15" s="75" t="n">
+      <c r="F15" s="77" t="n">
         <v>810</v>
       </c>
-      <c r="G15" s="75" t="s">
+      <c r="G15" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="77" t="n">
+      <c r="H15" s="79" t="n">
         <v>3300000</v>
       </c>
-      <c r="I15" s="78" t="n">
+      <c r="I15" s="80" t="n">
         <f aca="false">D15/1000</f>
         <v>2.5</v>
       </c>
-      <c r="J15" s="79" t="n">
+      <c r="J15" s="81" t="n">
         <f aca="false">I15*H15</f>
         <v>8250000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="80"/>
-      <c r="B16" s="81" t="s">
+      <c r="A16" s="82"/>
+      <c r="B16" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="82" t="s">
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="82"/>
-      <c r="J16" s="83" t="n">
+      <c r="I16" s="84"/>
+      <c r="J16" s="85" t="n">
         <f aca="false">SUM(J15)</f>
         <v>8250000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
     </row>
     <row r="18" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="75" t="n">
+      <c r="A18" s="77" t="n">
         <v>1</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="75" t="n">
+      <c r="D18" s="77" t="n">
         <f aca="false">2500</f>
         <v>2500</v>
       </c>
-      <c r="E18" s="75" t="n">
+      <c r="E18" s="77" t="n">
         <v>600</v>
       </c>
-      <c r="F18" s="75" t="n">
+      <c r="F18" s="77" t="n">
         <v>8</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="77" t="n">
+      <c r="H18" s="79" t="n">
         <v>850000</v>
       </c>
-      <c r="I18" s="78" t="n">
+      <c r="I18" s="80" t="n">
         <f aca="false">D18/1000</f>
         <v>2.5</v>
       </c>
-      <c r="J18" s="20" t="n">
+      <c r="J18" s="22" t="n">
         <f aca="false">I18*H18</f>
         <v>2125000</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="75" t="n">
+      <c r="A19" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="75" t="n">
+      <c r="D19" s="77" t="n">
         <v>2500</v>
       </c>
-      <c r="E19" s="75" t="n">
+      <c r="E19" s="77" t="n">
         <v>600</v>
       </c>
-      <c r="F19" s="75" t="n">
+      <c r="F19" s="77" t="n">
         <v>40</v>
       </c>
-      <c r="G19" s="75" t="s">
+      <c r="G19" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="77" t="n">
+      <c r="H19" s="79" t="n">
         <v>1350000</v>
       </c>
-      <c r="I19" s="78" t="n">
+      <c r="I19" s="80" t="n">
         <f aca="false">D19/1000</f>
         <v>2.5</v>
       </c>
-      <c r="J19" s="20" t="n">
+      <c r="J19" s="22" t="n">
         <f aca="false">I19*H19</f>
         <v>3375000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="75" t="n">
+      <c r="A20" s="77" t="n">
         <v>3</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52" t="s">
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="85" t="n">
+      <c r="H20" s="87" t="n">
         <v>1800000</v>
       </c>
-      <c r="I20" s="86" t="n">
+      <c r="I20" s="88" t="n">
         <v>1</v>
       </c>
-      <c r="J20" s="87" t="n">
+      <c r="J20" s="89" t="n">
         <f aca="false">I20*H20</f>
         <v>1800000</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="75" t="n">
+      <c r="A21" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="52" t="s">
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="85" t="n">
+      <c r="H21" s="87" t="n">
         <v>1770000</v>
       </c>
-      <c r="I21" s="86" t="n">
+      <c r="I21" s="88" t="n">
         <v>1</v>
       </c>
-      <c r="J21" s="87" t="n">
+      <c r="J21" s="89" t="n">
         <f aca="false">I21*H21</f>
         <v>1770000</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="75" t="n">
+      <c r="A22" s="77" t="n">
         <v>5</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="89" t="s">
+      <c r="D22" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="52" t="s">
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="85" t="n">
+      <c r="H22" s="87" t="n">
         <v>1550000</v>
       </c>
-      <c r="I22" s="86" t="n">
+      <c r="I22" s="88" t="n">
         <v>2</v>
       </c>
-      <c r="J22" s="90" t="n">
+      <c r="J22" s="92" t="n">
         <f aca="false">I22*H22</f>
         <v>3100000</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="75" t="n">
+      <c r="A23" s="77" t="n">
         <v>6</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="89" t="s">
+      <c r="D23" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="52" t="s">
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="85" t="n">
+      <c r="H23" s="87" t="n">
         <v>1770000</v>
       </c>
-      <c r="I23" s="86" t="n">
+      <c r="I23" s="88" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="90" t="n">
+      <c r="J23" s="92" t="n">
         <f aca="false">I23*H23</f>
         <v>1770000</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="75" t="n">
+      <c r="A24" s="77" t="n">
         <v>7</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49" t="s">
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="77" t="n">
+      <c r="H24" s="79" t="n">
         <v>105000</v>
       </c>
-      <c r="I24" s="78" t="n">
+      <c r="I24" s="80" t="n">
         <v>6</v>
       </c>
-      <c r="J24" s="79" t="n">
+      <c r="J24" s="81" t="n">
         <f aca="false">I24*H24</f>
         <v>630000</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="75" t="n">
+      <c r="A25" s="77" t="n">
         <v>8</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="91" t="s">
+      <c r="C25" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49" t="s">
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="H25" s="77" t="n">
+      <c r="H25" s="79" t="n">
         <v>155000</v>
       </c>
-      <c r="I25" s="78" t="n">
+      <c r="I25" s="80" t="n">
         <v>4</v>
       </c>
-      <c r="J25" s="79" t="n">
+      <c r="J25" s="81" t="n">
         <f aca="false">I25*H25</f>
         <v>620000</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="75" t="n">
+      <c r="A26" s="77" t="n">
         <v>9</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="91" t="s">
+      <c r="C26" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49" t="s">
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="77" t="n">
+      <c r="H26" s="79" t="n">
         <v>49500</v>
       </c>
-      <c r="I26" s="78" t="n">
+      <c r="I26" s="80" t="n">
         <v>20</v>
       </c>
-      <c r="J26" s="79" t="n">
+      <c r="J26" s="81" t="n">
         <f aca="false">I26*H26</f>
         <v>990000</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="75" t="n">
+      <c r="A27" s="77" t="n">
         <v>10</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75" t="s">
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="77" t="n">
+      <c r="H27" s="79" t="n">
         <v>100000</v>
       </c>
-      <c r="I27" s="92" t="n">
+      <c r="I27" s="94" t="n">
         <v>10</v>
       </c>
-      <c r="J27" s="79" t="n">
+      <c r="J27" s="81" t="n">
         <f aca="false">I27*H27</f>
         <v>1000000</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="75" t="n">
+      <c r="A28" s="77" t="n">
         <v>11</v>
       </c>
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="94" t="s">
+      <c r="D28" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94" t="s">
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="85" t="n">
+      <c r="H28" s="87" t="n">
         <v>275000</v>
       </c>
-      <c r="I28" s="92" t="n">
+      <c r="I28" s="94" t="n">
         <v>3</v>
       </c>
-      <c r="J28" s="79" t="n">
+      <c r="J28" s="81" t="n">
         <f aca="false">I28*H28</f>
         <v>825000</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="95"/>
-      <c r="B29" s="96" t="s">
+      <c r="A29" s="97"/>
+      <c r="B29" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="82" t="s">
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="I29" s="82"/>
-      <c r="J29" s="97" t="n">
+      <c r="I29" s="84"/>
+      <c r="J29" s="99" t="n">
         <f aca="false">SUM(J18:J28)</f>
         <v>18005000</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="95"/>
-      <c r="B30" s="96" t="s">
+      <c r="A30" s="97"/>
+      <c r="B30" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="98" t="s">
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="I30" s="98"/>
-      <c r="J30" s="99" t="n">
+      <c r="I30" s="100"/>
+      <c r="J30" s="101" t="n">
         <f aca="false">J16+J29</f>
         <v>26255000</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="100"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="32"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="34"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="100"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="32"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="34"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="100"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="32"/>
+      <c r="A34" s="102"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="34"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="100"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="32"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="34"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="100"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="32"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -529,13 +529,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
@@ -564,6 +557,13 @@
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="&quot;Times New Roman&quot;"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -711,14 +711,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFF3F3F3"/>
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD0E0E3"/>
-        <bgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -894,27 +894,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -923,34 +911,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -970,22 +950,6 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1014,11 +978,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1026,11 +990,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1042,39 +1026,55 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1094,7 +1094,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1138,7 +1138,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1150,7 +1150,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1174,23 +1174,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1198,11 +1198,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1210,15 +1210,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1323,13 +1323,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
+      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
@@ -1537,245 +1537,188 @@
       <c r="J13" s="12"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24" t="s">
+      <c r="G14" s="16"/>
+      <c r="H14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25" t="e">
+      <c r="I14" s="17"/>
+      <c r="J14" s="18" t="e">
         <f aca="false">#REF!*97/100</f>
         <v>#REF!</v>
       </c>
-      <c r="K15" s="21"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="K16" s="21"/>
+      <c r="A16" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="29" t="n">
+      <c r="A17" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23" t="n">
         <v>22000000</v>
       </c>
-      <c r="K17" s="21"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29" t="n">
-        <v>22000000</v>
-      </c>
-      <c r="K18" s="21"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23" t="n">
+        <v>-2000000</v>
+      </c>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26"/>
-      <c r="B19" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29" t="n">
-        <v>-2000000</v>
-      </c>
-      <c r="K19" s="21"/>
+      <c r="A19" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23" t="e">
+        <f aca="false">J14-J15-J16-J17-J18</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29" t="e">
-        <f aca="false">J15-J16-J17-J18-J19</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K20" s="21"/>
+      <c r="A20" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="21"/>
+      <c r="A21" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="21"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="21"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K25" s="21"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K26" s="21"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K27" s="21"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K29" s="21"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K30" s="21"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K31" s="21"/>
-    </row>
-    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K32" s="21"/>
-    </row>
-    <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K33" s="35"/>
-    </row>
-    <row r="34" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K34" s="36"/>
-    </row>
-    <row r="35" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K35" s="37"/>
-    </row>
-    <row r="36" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K36" s="36"/>
-    </row>
-    <row r="37" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K37" s="36"/>
-    </row>
-    <row r="38" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K38" s="38"/>
-    </row>
-    <row r="39" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K39" s="34"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K40" s="34"/>
-    </row>
-    <row r="41" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K41" s="34"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K42" s="34"/>
-    </row>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="26">
     <mergeCell ref="A1:B5"/>
@@ -1789,7 +1732,9 @@
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
-    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="H16:I16"/>
@@ -1799,11 +1744,9 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:C24"/>
-    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A21:C23"/>
+    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0"/>
@@ -1826,7 +1769,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
@@ -1840,80 +1783,80 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="41" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="41" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
       <c r="K3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="41" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="41" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1942,8 +1885,8 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="34"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1951,29 +1894,29 @@
         <v>33</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="44"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
       <c r="K8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
       <c r="K9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1987,8 +1930,8 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34"/>
       <c r="K10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2002,8 +1945,8 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="34"/>
       <c r="K11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2057,616 +2000,616 @@
       <c r="K13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48" t="n">
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="39" t="n">
         <f aca="false">SUM(J15:J18)</f>
         <v>69645100</v>
       </c>
-      <c r="K14" s="22"/>
+      <c r="K14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="n">
+      <c r="A15" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="16" t="n">
+      <c r="D15" s="40" t="n">
         <f aca="false">2505*2+3200</f>
         <v>8210</v>
       </c>
-      <c r="E15" s="16" t="n">
+      <c r="E15" s="40" t="n">
         <v>600</v>
       </c>
-      <c r="F15" s="16" t="n">
+      <c r="F15" s="40" t="n">
         <v>810</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="19" t="n">
+      <c r="H15" s="43" t="n">
         <v>3750000</v>
       </c>
-      <c r="I15" s="20" t="n">
+      <c r="I15" s="44" t="n">
         <f aca="false">D15/10^3</f>
         <v>8.21</v>
       </c>
-      <c r="J15" s="21" t="n">
+      <c r="J15" s="24" t="n">
         <f aca="false">I15*H15</f>
         <v>30787500</v>
       </c>
-      <c r="K15" s="21"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="n">
+      <c r="A16" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="16" t="n">
+      <c r="D16" s="40" t="n">
         <f aca="false">D15+250-2050</f>
         <v>6410</v>
       </c>
-      <c r="E16" s="16" t="n">
+      <c r="E16" s="40" t="n">
         <v>350</v>
       </c>
-      <c r="F16" s="16" t="n">
+      <c r="F16" s="40" t="n">
         <v>800</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="19" t="n">
+      <c r="H16" s="43" t="n">
         <v>2860000</v>
       </c>
-      <c r="I16" s="20" t="n">
+      <c r="I16" s="44" t="n">
         <f aca="false">D16/10^3</f>
         <v>6.41</v>
       </c>
-      <c r="J16" s="21" t="n">
+      <c r="J16" s="24" t="n">
         <f aca="false">I16*H16</f>
         <v>18332600</v>
       </c>
-      <c r="K16" s="21"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="n">
+      <c r="A17" s="40" t="n">
         <v>3</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="16" t="n">
+      <c r="D17" s="40" t="n">
         <f aca="false">D16</f>
         <v>6410</v>
       </c>
-      <c r="E17" s="16" t="n">
+      <c r="E17" s="40" t="n">
         <v>350</v>
       </c>
-      <c r="F17" s="16" t="n">
+      <c r="F17" s="40" t="n">
         <f aca="false">2815-810-800-600</f>
         <v>605</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="19" t="n">
+      <c r="H17" s="43" t="n">
         <v>2500000</v>
       </c>
-      <c r="I17" s="20" t="n">
+      <c r="I17" s="44" t="n">
         <f aca="false">D17/10^3</f>
         <v>6.41</v>
       </c>
-      <c r="J17" s="21" t="n">
+      <c r="J17" s="24" t="n">
         <f aca="false">I17*H17</f>
         <v>16025000</v>
       </c>
-      <c r="K17" s="21"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="n">
+      <c r="A18" s="40" t="n">
         <v>4</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="16" t="n">
+      <c r="D18" s="40" t="n">
         <v>1200</v>
       </c>
-      <c r="E18" s="16" t="n">
+      <c r="E18" s="40" t="n">
         <v>700</v>
       </c>
-      <c r="F18" s="16" t="n">
+      <c r="F18" s="40" t="n">
         <v>870</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="19" t="n">
+      <c r="H18" s="43" t="n">
         <f aca="false">H15</f>
         <v>3750000</v>
       </c>
-      <c r="I18" s="20" t="n">
+      <c r="I18" s="44" t="n">
         <f aca="false">D18/10^3</f>
         <v>1.2</v>
       </c>
-      <c r="J18" s="21" t="n">
+      <c r="J18" s="24" t="n">
         <f aca="false">I18*H18</f>
         <v>4500000</v>
       </c>
-      <c r="K18" s="21"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="49" t="n">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="45" t="n">
         <f aca="false">SUM(J20:J30)</f>
         <v>21425000</v>
       </c>
-      <c r="K19" s="21"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="n">
+      <c r="A20" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18" t="s">
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="52" t="n">
+      <c r="H20" s="48" t="n">
         <v>550000</v>
       </c>
-      <c r="I20" s="53" t="n">
+      <c r="I20" s="49" t="n">
         <v>2</v>
       </c>
-      <c r="J20" s="21" t="n">
+      <c r="J20" s="24" t="n">
         <f aca="false">I20*H20</f>
         <v>1100000</v>
       </c>
-      <c r="K20" s="21"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="n">
+      <c r="A21" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18" t="s">
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="52" t="n">
+      <c r="H21" s="48" t="n">
         <v>450000</v>
       </c>
-      <c r="I21" s="53" t="n">
+      <c r="I21" s="49" t="n">
         <v>3</v>
       </c>
-      <c r="J21" s="21" t="n">
+      <c r="J21" s="24" t="n">
         <f aca="false">I21*H21</f>
         <v>1350000</v>
       </c>
-      <c r="K21" s="21"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="n">
+      <c r="A22" s="40" t="n">
         <v>3</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18" t="s">
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="52" t="n">
+      <c r="H22" s="48" t="n">
         <v>1705000</v>
       </c>
-      <c r="I22" s="53" t="n">
+      <c r="I22" s="49" t="n">
         <v>2</v>
       </c>
-      <c r="J22" s="21" t="n">
+      <c r="J22" s="24" t="n">
         <f aca="false">I22*H22</f>
         <v>3410000</v>
       </c>
-      <c r="K22" s="21"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="n">
+      <c r="A23" s="40" t="n">
         <v>4</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="54" t="s">
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="55" t="n">
+      <c r="H23" s="51" t="n">
         <v>1900000</v>
       </c>
-      <c r="I23" s="53" t="n">
+      <c r="I23" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="21" t="n">
+      <c r="J23" s="24" t="n">
         <f aca="false">I23*H23</f>
         <v>1900000</v>
       </c>
-      <c r="K23" s="21"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="n">
+      <c r="A24" s="40" t="n">
         <v>5</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="54" t="s">
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="55" t="n">
+      <c r="H24" s="51" t="n">
         <v>1900000</v>
       </c>
-      <c r="I24" s="53" t="n">
+      <c r="I24" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="J24" s="21" t="n">
+      <c r="J24" s="24" t="n">
         <f aca="false">I24*H24</f>
         <v>1900000</v>
       </c>
-      <c r="K24" s="21"/>
+      <c r="K24" s="24"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="n">
+      <c r="A25" s="40" t="n">
         <v>6</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18" t="s">
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="56" t="n">
+      <c r="H25" s="52" t="n">
         <v>5885000</v>
       </c>
-      <c r="I25" s="53" t="n">
+      <c r="I25" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="J25" s="21" t="n">
+      <c r="J25" s="24" t="n">
         <f aca="false">I25*H25</f>
         <v>5885000</v>
       </c>
-      <c r="K25" s="21"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="n">
+      <c r="A26" s="40" t="n">
         <v>7</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54" t="s">
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="55" t="n">
+      <c r="H26" s="51" t="n">
         <v>880000</v>
       </c>
-      <c r="I26" s="53" t="n">
+      <c r="I26" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="J26" s="21" t="n">
+      <c r="J26" s="24" t="n">
         <f aca="false">I26*H26</f>
         <v>880000</v>
       </c>
-      <c r="K26" s="21"/>
+      <c r="K26" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="n">
+      <c r="A27" s="40" t="n">
         <v>8</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18" t="s">
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="56" t="n">
+      <c r="H27" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="20" t="n">
+      <c r="I27" s="44" t="n">
         <v>48</v>
       </c>
-      <c r="J27" s="21" t="n">
+      <c r="J27" s="24" t="n">
         <f aca="false">I27*H27</f>
         <v>0</v>
       </c>
-      <c r="K27" s="21"/>
+      <c r="K27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="n">
+      <c r="A28" s="40" t="n">
         <v>9</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="16" t="s">
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="56" t="n">
+      <c r="H28" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="53" t="n">
+      <c r="I28" s="49" t="n">
         <v>8</v>
       </c>
-      <c r="J28" s="21" t="n">
+      <c r="J28" s="24" t="n">
         <f aca="false">I28*H28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="21"/>
+      <c r="K28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="n">
+      <c r="A29" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18" t="s">
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="H29" s="56" t="n">
+      <c r="H29" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="20" t="n">
+      <c r="I29" s="44" t="n">
         <v>16</v>
       </c>
-      <c r="J29" s="21" t="n">
+      <c r="J29" s="24" t="n">
         <f aca="false">I29*H29</f>
         <v>0</v>
       </c>
-      <c r="K29" s="21"/>
+      <c r="K29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="n">
+      <c r="A30" s="40" t="n">
         <v>11</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="16" t="s">
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="57" t="n">
+      <c r="H30" s="53" t="n">
         <v>100000</v>
       </c>
-      <c r="I30" s="58" t="n">
+      <c r="I30" s="54" t="n">
         <v>50</v>
       </c>
-      <c r="J30" s="21" t="n">
+      <c r="J30" s="24" t="n">
         <f aca="false">I30*H30</f>
         <v>5000000</v>
       </c>
-      <c r="K30" s="21"/>
+      <c r="K30" s="24"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="61" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="I31" s="61"/>
-      <c r="J31" s="49" t="n">
+      <c r="I31" s="57"/>
+      <c r="J31" s="45" t="n">
         <f aca="false">SUM(J19+J14)</f>
         <v>91070100</v>
       </c>
-      <c r="K31" s="21"/>
+      <c r="K31" s="24"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="24"/>
-      <c r="J32" s="25" t="n">
+      <c r="I32" s="17"/>
+      <c r="J32" s="18" t="n">
         <f aca="false">J31*97/100</f>
         <v>88337997</v>
       </c>
-      <c r="K32" s="35"/>
+      <c r="K32" s="58"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="26" t="n">
+      <c r="A33" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28" t="s">
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="28"/>
-      <c r="J33" s="29" t="n">
+      <c r="I33" s="22"/>
+      <c r="J33" s="23" t="n">
         <v>13000000</v>
       </c>
-      <c r="K33" s="36"/>
+      <c r="K33" s="59"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="26" t="n">
+      <c r="A34" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28" t="s">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="28"/>
-      <c r="J34" s="29" t="n">
+      <c r="I34" s="22"/>
+      <c r="J34" s="23" t="n">
         <v>35000000</v>
       </c>
-      <c r="K34" s="37"/>
+      <c r="K34" s="60"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="26" t="n">
+      <c r="A35" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="28" t="s">
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29" t="n">
+      <c r="I35" s="22"/>
+      <c r="J35" s="23" t="n">
         <v>30000000</v>
       </c>
-      <c r="K35" s="36"/>
+      <c r="K35" s="59"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="26" t="n">
+      <c r="A36" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28" t="s">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I36" s="28"/>
-      <c r="J36" s="29" t="n">
+      <c r="I36" s="22"/>
+      <c r="J36" s="23" t="n">
         <f aca="false">J32-J33-J34-J35</f>
         <v>10337997</v>
       </c>
-      <c r="K36" s="38"/>
+      <c r="K36" s="61"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="62" t="s">
@@ -2674,34 +2617,34 @@
       </c>
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
-      <c r="K37" s="34"/>
+      <c r="K37" s="29"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="H39" s="32" t="s">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="H39" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I39" s="32"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -2774,7 +2717,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.29"/>
@@ -2789,76 +2732,76 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="41" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="41" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="41" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="41" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
     </row>
     <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="64" t="s">
@@ -3083,7 +3026,7 @@
       <c r="A18" s="77" t="n">
         <v>1</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="47" t="s">
         <v>88</v>
       </c>
       <c r="C18" s="78" t="s">
@@ -3099,7 +3042,7 @@
       <c r="F18" s="77" t="n">
         <v>8</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="47" t="s">
         <v>41</v>
       </c>
       <c r="H18" s="79" t="n">
@@ -3109,7 +3052,7 @@
         <f aca="false">D18/1000</f>
         <v>2.5</v>
       </c>
-      <c r="J18" s="22" t="n">
+      <c r="J18" s="19" t="n">
         <f aca="false">I18*H18</f>
         <v>2125000</v>
       </c>
@@ -3118,7 +3061,7 @@
       <c r="A19" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="47" t="s">
         <v>90</v>
       </c>
       <c r="C19" s="78" t="s">
@@ -3143,7 +3086,7 @@
         <f aca="false">D19/1000</f>
         <v>2.5</v>
       </c>
-      <c r="J19" s="22" t="n">
+      <c r="J19" s="19" t="n">
         <f aca="false">I19*H19</f>
         <v>3375000</v>
       </c>
@@ -3152,18 +3095,18 @@
       <c r="A20" s="77" t="n">
         <v>3</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="50" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54" t="s">
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50" t="s">
         <v>51</v>
       </c>
       <c r="H20" s="87" t="n">
@@ -3181,18 +3124,18 @@
       <c r="A21" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="50" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="54" t="s">
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="50" t="s">
         <v>51</v>
       </c>
       <c r="H21" s="87" t="n">
@@ -3210,7 +3153,7 @@
       <c r="A22" s="77" t="n">
         <v>5</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="50" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="90" t="s">
@@ -3221,7 +3164,7 @@
       </c>
       <c r="E22" s="91"/>
       <c r="F22" s="91"/>
-      <c r="G22" s="54" t="s">
+      <c r="G22" s="50" t="s">
         <v>97</v>
       </c>
       <c r="H22" s="87" t="n">
@@ -3239,7 +3182,7 @@
       <c r="A23" s="77" t="n">
         <v>6</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="50" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="90" t="s">
@@ -3250,7 +3193,7 @@
       </c>
       <c r="E23" s="91"/>
       <c r="F23" s="91"/>
-      <c r="G23" s="54" t="s">
+      <c r="G23" s="50" t="s">
         <v>51</v>
       </c>
       <c r="H23" s="87" t="n">
@@ -3268,16 +3211,16 @@
       <c r="A24" s="77" t="n">
         <v>7</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51" t="s">
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47" t="s">
         <v>66</v>
       </c>
       <c r="H24" s="79" t="n">
@@ -3295,16 +3238,16 @@
       <c r="A25" s="77" t="n">
         <v>8</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="47" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51" t="s">
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47" t="s">
         <v>101</v>
       </c>
       <c r="H25" s="79" t="n">
@@ -3322,16 +3265,16 @@
       <c r="A26" s="77" t="n">
         <v>9</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="47" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51" t="s">
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47" t="s">
         <v>66</v>
       </c>
       <c r="H26" s="79" t="n">
@@ -3349,7 +3292,7 @@
       <c r="A27" s="77" t="n">
         <v>10</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="47" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="77" t="s">
@@ -3440,18 +3383,18 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="102"/>
@@ -3463,7 +3406,7 @@
       <c r="G32" s="102"/>
       <c r="H32" s="103"/>
       <c r="I32" s="102"/>
-      <c r="J32" s="34"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="102"/>
@@ -3475,7 +3418,7 @@
       <c r="G33" s="102"/>
       <c r="H33" s="103"/>
       <c r="I33" s="102"/>
-      <c r="J33" s="34"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="102"/>
@@ -3487,7 +3430,7 @@
       <c r="G34" s="102"/>
       <c r="H34" s="103"/>
       <c r="I34" s="102"/>
-      <c r="J34" s="34"/>
+      <c r="J34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="102"/>
@@ -3499,7 +3442,7 @@
       <c r="G35" s="102"/>
       <c r="H35" s="103"/>
       <c r="I35" s="102"/>
-      <c r="J35" s="34"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="102"/>
@@ -3511,7 +3454,7 @@
       <c r="G36" s="102"/>
       <c r="H36" s="103"/>
       <c r="I36" s="102"/>
-      <c r="J36" s="34"/>
+      <c r="J36" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="108">
-  <si>
-    <t xml:space="preserve">Báo Giá Nội Thất</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="114">
+  <si>
+    <t xml:space="preserve">Báo Giá Nội Thất Công Ty TNHH Kiến Trúc Xây Dựng Nội Thất A One</t>
   </si>
   <si>
     <t xml:space="preserve">STT</t>
@@ -33,7 +33,7 @@
     <t xml:space="preserve">Tên hạng mục</t>
   </si>
   <si>
-    <t xml:space="preserve">Chi tiết</t>
+    <t xml:space="preserve">Vật liệu</t>
   </si>
   <si>
     <t xml:space="preserve">Kích thước</t>
@@ -45,7 +45,7 @@
     <t xml:space="preserve">Đơn giá</t>
   </si>
   <si>
-    <t xml:space="preserve">Số lượng</t>
+    <t xml:space="preserve">Khối lương</t>
   </si>
   <si>
     <t xml:space="preserve">Thành tiền</t>
@@ -63,34 +63,17 @@
     <t xml:space="preserve">Cao</t>
   </si>
   <si>
-    <t xml:space="preserve">Discount A.Tâm GT 3% còn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Đặt cọc thiết kế 15% giá trị HĐ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tạm ứng lần 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đặt cọc thi công 40% giá trị HĐ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tạm ứng lần 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đặt cọc 35% giá trị HĐ khi hàng đến công trình</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tạm ứng lần 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thiết kế căn song lập 2.88*4.4= 13m2*160K/m2=2tr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nghiệm thu, Quyết toán</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thanh toán  </t>
+    <t xml:space="preserve">Đặt cọc thiết kế 10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặt cọc thi công 30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hàng đến chân công trình 50%
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nghiệm thu quyết toán</t>
   </si>
   <si>
     <t xml:space="preserve">Chú thích:
@@ -204,6 +187,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Báo Giá Nội Thất</t>
+  </si>
+  <si>
     <t xml:space="preserve">Khách hàng : Thu Hằng</t>
   </si>
   <si>
@@ -217,6 +203,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sản phẩm:  Tủ bếp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi tiết</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số lượng</t>
   </si>
   <si>
     <t xml:space="preserve">I</t>
@@ -340,6 +332,33 @@
   </si>
   <si>
     <t xml:space="preserve"> Tổng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discount A.Tâm GT 3% còn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Đặt cọc thiết kế 15% giá trị HĐ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tạm ứng lần 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặt cọc thi công 40% giá trị HĐ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tạm ứng lần 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặt cọc 35% giá trị HĐ khi hàng đến công trình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tạm ứng lần 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nghiệm thu, Quyết toán</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thanh toán  </t>
   </si>
   <si>
     <t xml:space="preserve">Khách hàng: </t>
@@ -452,13 +471,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@"/>
-    <numFmt numFmtId="167" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@"/>
+    <numFmt numFmtId="166" formatCode="#,##0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
     <numFmt numFmtId="169" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -506,6 +525,14 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="13"/>
+      <color rgb="FF005184"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="18"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
@@ -523,15 +550,21 @@
     <font>
       <b val="true"/>
       <sz val="13"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
-      <family val="0"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="13"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="0"/>
       <charset val="1"/>
@@ -539,25 +572,15 @@
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
-      <name val="&quot;Times New Roman&quot;"/>
-      <family val="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
       <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Times New Roman&quot;"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Times New Roman&quot;"/>
-      <family val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -624,9 +647,41 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF0C343D"/>
       <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Times New Roman&quot;"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Times New Roman&quot;"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Times New Roman&quot;"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -690,12 +745,36 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6E25D"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAF2F4"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2F5496"/>
+        <bgColor rgb="FF005184"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -705,20 +784,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2F5496"/>
-        <bgColor rgb="FF666699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD0E0E3"/>
         <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -763,13 +830,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
       <right/>
       <top/>
       <bottom/>
@@ -780,6 +840,13 @@
       <right style="thin"/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -829,7 +896,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="111">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -850,19 +917,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -870,75 +937,55 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -946,11 +993,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -958,127 +1005,175 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1086,55 +1181,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1146,7 +1241,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1154,51 +1249,51 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1210,39 +1305,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1276,10 +1371,10 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFF2CC"/>
-      <rgbColor rgb="FFF3F3F3"/>
+      <rgbColor rgb="FFDAF2F4"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF005184"/>
       <rgbColor rgb="FFD0E0E3"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -1290,9 +1385,9 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFF3F3F3"/>
       <rgbColor rgb="FFC6EFCE"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFF6E25D"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -1323,13 +1418,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
+      <selection pane="topLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
@@ -1342,7 +1437,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="37.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -1355,7 +1450,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1368,7 +1463,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -1381,7 +1476,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1394,7 +1489,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1486,29 +1581,30 @@
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
       <c r="K11" s="9"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="14" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="14" t="s">
@@ -1518,196 +1614,122 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16"/>
+      <c r="A14" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18" t="e">
-        <f aca="false">#REF!*97/100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="K15" s="24"/>
-    </row>
-    <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" s="21" t="s">
+      <c r="H14" s="16" t="s">
         <v>16</v>
       </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" customFormat="false" ht="91" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
-      <c r="H16" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23" t="n">
-        <v>22000000</v>
-      </c>
-      <c r="K16" s="24"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="22" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23" t="n">
-        <v>22000000</v>
-      </c>
-      <c r="K17" s="24"/>
-    </row>
-    <row r="18" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20"/>
-      <c r="B18" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="22"/>
       <c r="I18" s="22"/>
-      <c r="J18" s="23" t="n">
-        <v>-2000000</v>
-      </c>
-      <c r="K18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="23" t="e">
-        <f aca="false">J14-J15-J16-J17-J18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K19" s="24"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="24"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="24"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="24"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="24"/>
+      <c r="K23" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1720,7 +1742,7 @@
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="20">
     <mergeCell ref="A1:B5"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A12:A13"/>
@@ -1732,21 +1754,15 @@
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:C19"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A21:C23"/>
-    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0"/>
@@ -1769,7 +1785,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
@@ -1783,100 +1799,100 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="9"/>
@@ -1885,43 +1901,43 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="34"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="35"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="30"/>
       <c r="K8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="35"/>
+        <v>29</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
@@ -1930,13 +1946,13 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="9"/>
@@ -1945,35 +1961,35 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12" t="s">
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="14" t="s">
+      <c r="I12" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="35" t="s">
         <v>8</v>
       </c>
       <c r="K12" s="15" t="s">
@@ -1981,222 +1997,222 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
       <c r="K13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39" t="n">
+      <c r="A14" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38" t="n">
         <f aca="false">SUM(J15:J18)</f>
         <v>69645100</v>
       </c>
-      <c r="K14" s="19"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="40" t="n">
+      <c r="A15" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="40" t="n">
+      <c r="B15" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="39" t="n">
         <f aca="false">2505*2+3200</f>
         <v>8210</v>
       </c>
-      <c r="E15" s="40" t="n">
+      <c r="E15" s="39" t="n">
         <v>600</v>
       </c>
-      <c r="F15" s="40" t="n">
+      <c r="F15" s="39" t="n">
         <v>810</v>
       </c>
-      <c r="G15" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="43" t="n">
+      <c r="G15" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="42" t="n">
         <v>3750000</v>
       </c>
-      <c r="I15" s="44" t="n">
+      <c r="I15" s="43" t="n">
         <f aca="false">D15/10^3</f>
         <v>8.21</v>
       </c>
-      <c r="J15" s="24" t="n">
+      <c r="J15" s="20" t="n">
         <f aca="false">I15*H15</f>
         <v>30787500</v>
       </c>
-      <c r="K15" s="24"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40" t="n">
+      <c r="A16" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="40" t="n">
+      <c r="B16" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="39" t="n">
         <f aca="false">D15+250-2050</f>
         <v>6410</v>
       </c>
-      <c r="E16" s="40" t="n">
+      <c r="E16" s="39" t="n">
         <v>350</v>
       </c>
-      <c r="F16" s="40" t="n">
+      <c r="F16" s="39" t="n">
         <v>800</v>
       </c>
-      <c r="G16" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="43" t="n">
+      <c r="G16" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="42" t="n">
         <v>2860000</v>
       </c>
-      <c r="I16" s="44" t="n">
+      <c r="I16" s="43" t="n">
         <f aca="false">D16/10^3</f>
         <v>6.41</v>
       </c>
-      <c r="J16" s="24" t="n">
+      <c r="J16" s="20" t="n">
         <f aca="false">I16*H16</f>
         <v>18332600</v>
       </c>
-      <c r="K16" s="24"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="40" t="n">
+      <c r="A17" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="40" t="n">
+      <c r="B17" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="39" t="n">
         <f aca="false">D16</f>
         <v>6410</v>
       </c>
-      <c r="E17" s="40" t="n">
+      <c r="E17" s="39" t="n">
         <v>350</v>
       </c>
-      <c r="F17" s="40" t="n">
+      <c r="F17" s="39" t="n">
         <f aca="false">2815-810-800-600</f>
         <v>605</v>
       </c>
-      <c r="G17" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="43" t="n">
+      <c r="G17" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="42" t="n">
         <v>2500000</v>
       </c>
-      <c r="I17" s="44" t="n">
+      <c r="I17" s="43" t="n">
         <f aca="false">D17/10^3</f>
         <v>6.41</v>
       </c>
-      <c r="J17" s="24" t="n">
+      <c r="J17" s="20" t="n">
         <f aca="false">I17*H17</f>
         <v>16025000</v>
       </c>
-      <c r="K17" s="24"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="40" t="n">
+      <c r="A18" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="B18" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="40" t="n">
+      <c r="B18" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="39" t="n">
         <v>1200</v>
       </c>
-      <c r="E18" s="40" t="n">
+      <c r="E18" s="39" t="n">
         <v>700</v>
       </c>
-      <c r="F18" s="40" t="n">
+      <c r="F18" s="39" t="n">
         <v>870</v>
       </c>
-      <c r="G18" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="43" t="n">
+      <c r="G18" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="42" t="n">
         <f aca="false">H15</f>
         <v>3750000</v>
       </c>
-      <c r="I18" s="44" t="n">
+      <c r="I18" s="43" t="n">
         <f aca="false">D18/10^3</f>
         <v>1.2</v>
       </c>
-      <c r="J18" s="24" t="n">
+      <c r="J18" s="20" t="n">
         <f aca="false">I18*H18</f>
         <v>4500000</v>
       </c>
-      <c r="K18" s="24"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="40"/>
-      <c r="B19" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="45" t="n">
         <f aca="false">SUM(J20:J30)</f>
         <v>21425000</v>
       </c>
-      <c r="K19" s="24"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="40" t="n">
+      <c r="A20" s="39" t="n">
         <v>1</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41" t="s">
+        <v>48</v>
       </c>
       <c r="H20" s="48" t="n">
         <v>550000</v>
@@ -2204,27 +2220,27 @@
       <c r="I20" s="49" t="n">
         <v>2</v>
       </c>
-      <c r="J20" s="24" t="n">
+      <c r="J20" s="20" t="n">
         <f aca="false">I20*H20</f>
         <v>1100000</v>
       </c>
-      <c r="K20" s="24"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="40" t="n">
+      <c r="A21" s="39" t="n">
         <v>2</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41" t="s">
+        <v>48</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>450000</v>
@@ -2232,27 +2248,27 @@
       <c r="I21" s="49" t="n">
         <v>3</v>
       </c>
-      <c r="J21" s="24" t="n">
+      <c r="J21" s="20" t="n">
         <f aca="false">I21*H21</f>
         <v>1350000</v>
       </c>
-      <c r="K21" s="24"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="40" t="n">
+      <c r="A22" s="39" t="n">
         <v>3</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42" t="s">
         <v>51</v>
+      </c>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41" t="s">
+        <v>48</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>1705000</v>
@@ -2260,27 +2276,27 @@
       <c r="I22" s="49" t="n">
         <v>2</v>
       </c>
-      <c r="J22" s="24" t="n">
+      <c r="J22" s="20" t="n">
         <f aca="false">I22*H22</f>
         <v>3410000</v>
       </c>
-      <c r="K22" s="24"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="40" t="n">
+      <c r="A23" s="39" t="n">
         <v>4</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
+        <v>53</v>
+      </c>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="50" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H23" s="51" t="n">
         <v>1900000</v>
@@ -2288,27 +2304,27 @@
       <c r="I23" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="24" t="n">
+      <c r="J23" s="20" t="n">
         <f aca="false">I23*H23</f>
         <v>1900000</v>
       </c>
-      <c r="K23" s="24"/>
+      <c r="K23" s="20"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="40" t="n">
+      <c r="A24" s="39" t="n">
         <v>5</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
+        <v>55</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="50" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H24" s="51" t="n">
         <v>1900000</v>
@@ -2316,27 +2332,27 @@
       <c r="I24" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="J24" s="24" t="n">
+      <c r="J24" s="20" t="n">
         <f aca="false">I24*H24</f>
         <v>1900000</v>
       </c>
-      <c r="K24" s="24"/>
+      <c r="K24" s="20"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="40" t="n">
+      <c r="A25" s="39" t="n">
         <v>6</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41" t="s">
+        <v>48</v>
       </c>
       <c r="H25" s="52" t="n">
         <v>5885000</v>
@@ -2344,27 +2360,27 @@
       <c r="I25" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="J25" s="24" t="n">
+      <c r="J25" s="20" t="n">
         <f aca="false">I25*H25</f>
         <v>5885000</v>
       </c>
-      <c r="K25" s="24"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="40" t="n">
+      <c r="A26" s="39" t="n">
         <v>7</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D26" s="50"/>
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="50" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H26" s="51" t="n">
         <v>880000</v>
@@ -2372,55 +2388,55 @@
       <c r="I26" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="J26" s="24" t="n">
+      <c r="J26" s="20" t="n">
         <f aca="false">I26*H26</f>
         <v>880000</v>
       </c>
-      <c r="K26" s="24"/>
+      <c r="K26" s="20"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="40" t="n">
+      <c r="A27" s="39" t="n">
         <v>8</v>
       </c>
-      <c r="B27" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42" t="s">
-        <v>66</v>
+      <c r="B27" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41" t="s">
+        <v>63</v>
       </c>
       <c r="H27" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="44" t="n">
+      <c r="I27" s="43" t="n">
         <v>48</v>
       </c>
-      <c r="J27" s="24" t="n">
+      <c r="J27" s="20" t="n">
         <f aca="false">I27*H27</f>
         <v>0</v>
       </c>
-      <c r="K27" s="24"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="40" t="n">
+      <c r="A28" s="39" t="n">
         <v>9</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="40" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="H28" s="52" t="n">
         <v>0</v>
@@ -2428,55 +2444,55 @@
       <c r="I28" s="49" t="n">
         <v>8</v>
       </c>
-      <c r="J28" s="24" t="n">
+      <c r="J28" s="20" t="n">
         <f aca="false">I28*H28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="24"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="40" t="n">
+      <c r="A29" s="39" t="n">
         <v>10</v>
       </c>
-      <c r="B29" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42" t="s">
-        <v>66</v>
+      <c r="B29" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41" t="s">
+        <v>63</v>
       </c>
       <c r="H29" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="44" t="n">
+      <c r="I29" s="43" t="n">
         <v>16</v>
       </c>
-      <c r="J29" s="24" t="n">
+      <c r="J29" s="20" t="n">
         <f aca="false">I29*H29</f>
         <v>0</v>
       </c>
-      <c r="K29" s="24"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="40" t="n">
+      <c r="A30" s="39" t="n">
         <v>11</v>
       </c>
-      <c r="B30" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="40" t="s">
-        <v>66</v>
+      <c r="B30" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="39" t="s">
+        <v>63</v>
       </c>
       <c r="H30" s="53" t="n">
         <v>100000</v>
@@ -2484,14 +2500,14 @@
       <c r="I30" s="54" t="n">
         <v>50</v>
       </c>
-      <c r="J30" s="24" t="n">
+      <c r="J30" s="20" t="n">
         <f aca="false">I30*H30</f>
         <v>5000000</v>
       </c>
-      <c r="K30" s="24"/>
+      <c r="K30" s="20"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="40"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
       <c r="D31" s="55"/>
@@ -2499,152 +2515,152 @@
       <c r="F31" s="55"/>
       <c r="G31" s="56"/>
       <c r="H31" s="57" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I31" s="57"/>
       <c r="J31" s="45" t="n">
         <f aca="false">SUM(J19+J14)</f>
         <v>91070100</v>
       </c>
-      <c r="K31" s="24"/>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="18" t="n">
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" s="58"/>
+      <c r="J32" s="59" t="n">
         <f aca="false">J31*97/100</f>
         <v>88337997</v>
       </c>
-      <c r="K32" s="58"/>
+      <c r="K32" s="60"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="n">
+      <c r="A33" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="23" t="n">
+      <c r="B33" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="63"/>
+      <c r="J33" s="64" t="n">
         <v>13000000</v>
       </c>
-      <c r="K33" s="59"/>
+      <c r="K33" s="65"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20" t="n">
+      <c r="A34" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="B34" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="23" t="n">
+      <c r="B34" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" s="63"/>
+      <c r="J34" s="64" t="n">
         <v>35000000</v>
       </c>
-      <c r="K34" s="60"/>
+      <c r="K34" s="66"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20" t="n">
+      <c r="A35" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="B35" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="23" t="n">
+      <c r="B35" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35" s="63"/>
+      <c r="J35" s="64" t="n">
         <v>30000000</v>
       </c>
-      <c r="K35" s="59"/>
+      <c r="K35" s="65"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20" t="n">
+      <c r="A36" s="61" t="n">
         <v>4</v>
       </c>
-      <c r="B36" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="22"/>
-      <c r="J36" s="23" t="n">
+      <c r="B36" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" s="63"/>
+      <c r="J36" s="64" t="n">
         <f aca="false">J32-J33-J34-J35</f>
         <v>10337997</v>
       </c>
-      <c r="K36" s="61"/>
+      <c r="K36" s="68"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="K37" s="29"/>
+      <c r="A37" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="K37" s="24"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
+      <c r="A38" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="H39" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I39" s="27"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="H39" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="22"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -2717,7 +2733,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.29"/>
@@ -2732,729 +2748,729 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+    </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-    </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-    </row>
-    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
+      <c r="A7" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="70" t="n">
+      <c r="A8" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="77" t="n">
         <v>356188889</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="76"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="69"/>
+      <c r="A9" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="78"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="76"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="69"/>
+      <c r="A10" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="79"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="76"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
+      <c r="A11" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="80"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="76"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12" t="s">
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="74" t="s">
+      <c r="I12" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="81" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
+      <c r="A14" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
     </row>
     <row r="15" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="77" t="n">
+      <c r="A15" s="84" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="77" t="n">
+      <c r="B15" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="84" t="n">
         <v>2500</v>
       </c>
-      <c r="E15" s="77" t="n">
+      <c r="E15" s="84" t="n">
         <v>600</v>
       </c>
-      <c r="F15" s="77" t="n">
+      <c r="F15" s="84" t="n">
         <v>810</v>
       </c>
-      <c r="G15" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="79" t="n">
+      <c r="G15" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="86" t="n">
         <v>3300000</v>
       </c>
-      <c r="I15" s="80" t="n">
+      <c r="I15" s="87" t="n">
         <f aca="false">D15/1000</f>
         <v>2.5</v>
       </c>
-      <c r="J15" s="81" t="n">
+      <c r="J15" s="88" t="n">
         <f aca="false">I15*H15</f>
         <v>8250000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="82"/>
-      <c r="B16" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="84"/>
-      <c r="J16" s="85" t="n">
+      <c r="A16" s="89"/>
+      <c r="B16" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="91"/>
+      <c r="J16" s="92" t="n">
         <f aca="false">SUM(J15)</f>
         <v>8250000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
+      <c r="A17" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
     </row>
     <row r="18" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="77" t="n">
+      <c r="A18" s="84" t="n">
         <v>1</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="77" t="n">
+        <v>94</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="84" t="n">
         <f aca="false">2500</f>
         <v>2500</v>
       </c>
-      <c r="E18" s="77" t="n">
+      <c r="E18" s="84" t="n">
         <v>600</v>
       </c>
-      <c r="F18" s="77" t="n">
+      <c r="F18" s="84" t="n">
         <v>8</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="79" t="n">
+        <v>38</v>
+      </c>
+      <c r="H18" s="86" t="n">
         <v>850000</v>
       </c>
-      <c r="I18" s="80" t="n">
+      <c r="I18" s="87" t="n">
         <f aca="false">D18/1000</f>
         <v>2.5</v>
       </c>
-      <c r="J18" s="19" t="n">
+      <c r="J18" s="17" t="n">
         <f aca="false">I18*H18</f>
         <v>2125000</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="77" t="n">
+      <c r="A19" s="84" t="n">
         <v>2</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="77" t="n">
+        <v>96</v>
+      </c>
+      <c r="C19" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="84" t="n">
         <v>2500</v>
       </c>
-      <c r="E19" s="77" t="n">
+      <c r="E19" s="84" t="n">
         <v>600</v>
       </c>
-      <c r="F19" s="77" t="n">
+      <c r="F19" s="84" t="n">
         <v>40</v>
       </c>
-      <c r="G19" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="79" t="n">
+      <c r="G19" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="86" t="n">
         <v>1350000</v>
       </c>
-      <c r="I19" s="80" t="n">
+      <c r="I19" s="87" t="n">
         <f aca="false">D19/1000</f>
         <v>2.5</v>
       </c>
-      <c r="J19" s="19" t="n">
+      <c r="J19" s="17" t="n">
         <f aca="false">I19*H19</f>
         <v>3375000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="77" t="n">
+      <c r="A20" s="84" t="n">
         <v>3</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="86" t="s">
-        <v>92</v>
+        <v>56</v>
+      </c>
+      <c r="C20" s="93" t="s">
+        <v>98</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="87" t="n">
+        <v>48</v>
+      </c>
+      <c r="H20" s="94" t="n">
         <v>1800000</v>
       </c>
-      <c r="I20" s="88" t="n">
+      <c r="I20" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="J20" s="89" t="n">
+      <c r="J20" s="96" t="n">
         <f aca="false">I20*H20</f>
         <v>1800000</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="77" t="n">
+      <c r="A21" s="84" t="n">
         <v>4</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="90" t="s">
-        <v>94</v>
+        <v>46</v>
+      </c>
+      <c r="C21" s="97" t="s">
+        <v>100</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="47"/>
       <c r="G21" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="87" t="n">
+        <v>48</v>
+      </c>
+      <c r="H21" s="94" t="n">
         <v>1770000</v>
       </c>
-      <c r="I21" s="88" t="n">
+      <c r="I21" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="J21" s="89" t="n">
+      <c r="J21" s="96" t="n">
         <f aca="false">I21*H21</f>
         <v>1770000</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="77" t="n">
+      <c r="A22" s="84" t="n">
         <v>5</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
+        <v>50</v>
+      </c>
+      <c r="C22" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="87" t="n">
+        <v>103</v>
+      </c>
+      <c r="H22" s="94" t="n">
         <v>1550000</v>
       </c>
-      <c r="I22" s="88" t="n">
+      <c r="I22" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="J22" s="92" t="n">
+      <c r="J22" s="99" t="n">
         <f aca="false">I22*H22</f>
         <v>3100000</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="77" t="n">
+      <c r="A23" s="84" t="n">
         <v>6</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
+        <v>49</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="98" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
       <c r="G23" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="87" t="n">
+        <v>48</v>
+      </c>
+      <c r="H23" s="94" t="n">
         <v>1770000</v>
       </c>
-      <c r="I23" s="88" t="n">
+      <c r="I23" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="92" t="n">
+      <c r="J23" s="99" t="n">
         <f aca="false">I23*H23</f>
         <v>1770000</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="77" t="n">
+      <c r="A24" s="84" t="n">
         <v>7</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="78" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="C24" s="85" t="s">
+        <v>68</v>
       </c>
       <c r="D24" s="47"/>
       <c r="E24" s="47"/>
       <c r="F24" s="47"/>
       <c r="G24" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="79" t="n">
+        <v>63</v>
+      </c>
+      <c r="H24" s="86" t="n">
         <v>105000</v>
       </c>
-      <c r="I24" s="80" t="n">
+      <c r="I24" s="87" t="n">
         <v>6</v>
       </c>
-      <c r="J24" s="81" t="n">
+      <c r="J24" s="88" t="n">
         <f aca="false">I24*H24</f>
         <v>630000</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="77" t="n">
+      <c r="A25" s="84" t="n">
         <v>8</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="93" t="s">
-        <v>100</v>
+        <v>64</v>
+      </c>
+      <c r="C25" s="100" t="s">
+        <v>106</v>
       </c>
       <c r="D25" s="47"/>
       <c r="E25" s="47"/>
       <c r="F25" s="47"/>
       <c r="G25" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" s="79" t="n">
+        <v>107</v>
+      </c>
+      <c r="H25" s="86" t="n">
         <v>155000</v>
       </c>
-      <c r="I25" s="80" t="n">
+      <c r="I25" s="87" t="n">
         <v>4</v>
       </c>
-      <c r="J25" s="81" t="n">
+      <c r="J25" s="88" t="n">
         <f aca="false">I25*H25</f>
         <v>620000</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="77" t="n">
+      <c r="A26" s="84" t="n">
         <v>9</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="93" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="C26" s="100" t="s">
+        <v>62</v>
       </c>
       <c r="D26" s="47"/>
       <c r="E26" s="47"/>
       <c r="F26" s="47"/>
       <c r="G26" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="79" t="n">
+        <v>63</v>
+      </c>
+      <c r="H26" s="86" t="n">
         <v>49500</v>
       </c>
-      <c r="I26" s="80" t="n">
+      <c r="I26" s="87" t="n">
         <v>20</v>
       </c>
-      <c r="J26" s="81" t="n">
+      <c r="J26" s="88" t="n">
         <f aca="false">I26*H26</f>
         <v>990000</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="77" t="n">
+      <c r="A27" s="84" t="n">
         <v>10</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="79" t="n">
+        <v>69</v>
+      </c>
+      <c r="C27" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="86" t="n">
         <v>100000</v>
       </c>
-      <c r="I27" s="94" t="n">
+      <c r="I27" s="101" t="n">
         <v>10</v>
       </c>
-      <c r="J27" s="81" t="n">
+      <c r="J27" s="88" t="n">
         <f aca="false">I27*H27</f>
         <v>1000000</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="77" t="n">
+      <c r="A28" s="84" t="n">
         <v>11</v>
       </c>
-      <c r="B28" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="90" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="96" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="87" t="n">
+      <c r="B28" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="94" t="n">
         <v>275000</v>
       </c>
-      <c r="I28" s="94" t="n">
+      <c r="I28" s="101" t="n">
         <v>3</v>
       </c>
-      <c r="J28" s="81" t="n">
+      <c r="J28" s="88" t="n">
         <f aca="false">I28*H28</f>
         <v>825000</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="97"/>
-      <c r="B29" s="98" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="I29" s="84"/>
-      <c r="J29" s="99" t="n">
+      <c r="A29" s="104"/>
+      <c r="B29" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="91"/>
+      <c r="J29" s="106" t="n">
         <f aca="false">SUM(J18:J28)</f>
         <v>18005000</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="97"/>
-      <c r="B30" s="98" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="100" t="s">
-        <v>85</v>
-      </c>
-      <c r="I30" s="100"/>
-      <c r="J30" s="101" t="n">
+      <c r="A30" s="104"/>
+      <c r="B30" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" s="107"/>
+      <c r="J30" s="108" t="n">
         <f aca="false">J16+J29</f>
         <v>26255000</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
+      <c r="A31" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="102"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="29"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="102"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="29"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="102"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="29"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="24"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="102"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="102"/>
-      <c r="J35" s="29"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="102"/>
-      <c r="B36" s="102"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="102"/>
-      <c r="J36" s="29"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="30">
